--- a/public/downloads/Template FIles/Accountslist report result.xlsx
+++ b/public/downloads/Template FIles/Accountslist report result.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RMG\Documents\vs1_cloud_project\public\downloads\Template FIles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RMG\Documents\NormanScott\1-26~Excel Link\Template FIles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Accountslist report result" sheetId="1" r:id="rId1"/>
@@ -1353,7 +1353,7 @@
     <tableColumn id="46" uniqueName="46" name="T.CardNumber" queryTableFieldId="45" dataDxfId="1"/>
     <tableColumn id="47" uniqueName="47" name="T.ReceiptCategory" queryTableFieldId="46" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1622,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2043,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ11" sqref="AJ11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
